--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -241,7 +241,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -28,148 +28,175 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
   </si>
   <si>
     <t xml:space="preserve">2009</t>
@@ -191,33 +218,6 @@
   </si>
   <si>
     <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
   </si>
   <si>
     <t xml:space="preserve">1991</t>
@@ -732,11 +732,9 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -746,11 +744,9 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -760,11 +756,9 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -774,11 +768,9 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -788,11 +780,9 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.34</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -802,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="D7" t="n">
-        <v>1.26</v>
+        <v>0.029699847</v>
       </c>
     </row>
     <row r="8">
@@ -816,182 +806,186 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
+        <v>0.035053729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09</v>
+        <v>0.031213899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09</v>
+        <v>0.028447566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08</v>
+        <v>0.027080418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1</v>
+        <v>0.048255661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.09</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="D13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.09</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D16"/>
+        <v>2010</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D17"/>
+        <v>2011</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D18"/>
+        <v>2012</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D19"/>
+        <v>2013</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>0.029699847</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="D21" t="n">
-        <v>0.035053729</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
@@ -1002,11 +996,9 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.031213899</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1016,10 +1008,10 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.028447566</v>
+        <v>0.058029769</v>
       </c>
     </row>
     <row r="24">
@@ -1030,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.027080418</v>
+        <v>0.05648851</v>
       </c>
     </row>
     <row r="25">
@@ -1044,10 +1036,10 @@
         <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.048255661</v>
+        <v>0.051239015</v>
       </c>
     </row>
     <row r="26">
@@ -1058,9 +1050,11 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D26"/>
+        <v>2004</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.049921275</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1070,9 +1064,11 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D27"/>
+        <v>2005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.052420212</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1082,104 +1078,108 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D28"/>
+        <v>2006</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.055136554</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D29"/>
+        <v>2007</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.069144646</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D30" t="n">
-        <v>0.058029769</v>
+        <v>0.06136627</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05648851</v>
+        <v>0.066368968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D32" t="n">
-        <v>0.051239015</v>
+        <v>0.065588828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D33" t="n">
-        <v>0.049921275</v>
+        <v>0.069949687</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D34" t="n">
-        <v>0.052420212</v>
+        <v>0.075652369</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D35" t="n">
-        <v>0.055136554</v>
+        <v>0.081611315</v>
       </c>
     </row>
     <row r="36">
@@ -1190,10 +1190,10 @@
         <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D36" t="n">
-        <v>0.069144646</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
@@ -1204,10 +1204,10 @@
         <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06136627</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="38">
@@ -1218,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.066368968</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="39">
@@ -1232,52 +1232,52 @@
         <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D39" t="n">
-        <v>0.065588828</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D40" t="n">
-        <v>0.069949687</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.075652369</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D42" t="n">
-        <v>0.081611315</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="43">
@@ -1288,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44">
@@ -1302,10 +1302,10 @@
         <v>13</v>
       </c>
       <c r="C44" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D44" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
@@ -1316,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="46">
@@ -1330,10 +1330,10 @@
         <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="47">
@@ -1344,10 +1344,10 @@
         <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="48">
@@ -1358,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49">
@@ -1372,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="50">
@@ -1386,49 +1386,49 @@
         <v>13</v>
       </c>
       <c r="C50" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D53" t="n">
         <v>0.09</v>
@@ -1442,10 +1442,10 @@
         <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="55">
@@ -1456,10 +1456,10 @@
         <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56">
@@ -1470,10 +1470,10 @@
         <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="57">
@@ -1484,10 +1484,10 @@
         <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="58">
@@ -1498,10 +1498,10 @@
         <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="59">
@@ -1512,10 +1512,10 @@
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="60">
@@ -1526,10 +1526,10 @@
         <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="61">
@@ -1540,10 +1540,10 @@
         <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="62">
@@ -1554,52 +1554,52 @@
         <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D63" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C64" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D64" t="n">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D65" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="66">
@@ -1610,10 +1610,10 @@
         <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="67">
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="C67" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -1638,10 +1638,10 @@
         <v>17</v>
       </c>
       <c r="C68" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D68" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="69">
@@ -1652,94 +1652,94 @@
         <v>17</v>
       </c>
       <c r="C69" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C70" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C71" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D72" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D73" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="76">
@@ -1750,11 +1750,9 @@
         <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -1764,11 +1762,9 @@
         <v>19</v>
       </c>
       <c r="C77" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.09</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="D77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -1778,11 +1774,9 @@
         <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.11</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="D78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -1792,11 +1786,9 @@
         <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.1</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="D79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -1806,11 +1798,9 @@
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.1</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -1820,11 +1810,9 @@
         <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.11</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -1834,108 +1822,104 @@
         <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.13</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.08</v>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="D83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12</v>
+        <v>0.064289413</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C85" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1</v>
+        <v>0.050924275</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07</v>
+        <v>0.049786431</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08</v>
+        <v>0.048467455</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06</v>
+        <v>0.055832166</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07</v>
+        <v>0.064116771</v>
       </c>
     </row>
     <row r="90">
@@ -1946,10 +1930,10 @@
         <v>21</v>
       </c>
       <c r="C90" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="91">
@@ -1960,10 +1944,10 @@
         <v>21</v>
       </c>
       <c r="C91" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="92">
@@ -1974,10 +1958,10 @@
         <v>21</v>
       </c>
       <c r="C92" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93">
@@ -1988,10 +1972,10 @@
         <v>21</v>
       </c>
       <c r="C93" t="n">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="94">
@@ -2002,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="C94" t="n">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="95">
@@ -2016,10 +2000,10 @@
         <v>21</v>
       </c>
       <c r="C95" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="96">
@@ -2030,7 +2014,7 @@
         <v>21</v>
       </c>
       <c r="C96" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D96" t="n">
         <v>0.07</v>
@@ -2044,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="C97" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D97" t="n">
         <v>0.07</v>
@@ -2052,87 +2036,101 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D98"/>
+        <v>2009</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C99" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D99"/>
+        <v>2010</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D100"/>
+        <v>2011</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C101" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D101"/>
+        <v>2012</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C102" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D102"/>
+        <v>2013</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C103" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D103"/>
+        <v>2014</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C104" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D104"/>
+        <v>2015</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2142,9 +2140,11 @@
         <v>23</v>
       </c>
       <c r="C105" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D105"/>
+        <v>2013</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -2154,10 +2154,10 @@
         <v>23</v>
       </c>
       <c r="C106" t="n">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>0.064289413</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="107">
@@ -2168,79 +2168,79 @@
         <v>23</v>
       </c>
       <c r="C107" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D107" t="n">
-        <v>0.050924275</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C108" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.049786431</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="D108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C109" t="n">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="D109" t="n">
-        <v>0.048467455</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C110" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="D110" t="n">
-        <v>0.055832166</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C111" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D111" t="n">
-        <v>0.064116771</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C112" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D112"/>
+        <v>2006</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -2250,10 +2250,10 @@
         <v>27</v>
       </c>
       <c r="C113" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="114">
@@ -2264,10 +2264,10 @@
         <v>27</v>
       </c>
       <c r="C114" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="115">
@@ -2278,94 +2278,94 @@
         <v>27</v>
       </c>
       <c r="C115" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C116" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D116" t="n">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C117" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D117" t="n">
-        <v>0.53</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C118" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D118" t="n">
-        <v>0.68</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C119" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D119" t="n">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C120" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D120" t="n">
-        <v>0.69</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C121" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D121" t="n">
-        <v>0.75</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="122">
@@ -2376,10 +2376,10 @@
         <v>29</v>
       </c>
       <c r="C122" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D122" t="n">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="123">
@@ -2390,94 +2390,94 @@
         <v>29</v>
       </c>
       <c r="C123" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C124" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C125" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D125" t="n">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C126" t="n">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C127" t="n">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C128" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C129" t="n">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D129" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130">
@@ -2488,10 +2488,10 @@
         <v>31</v>
       </c>
       <c r="C130" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D130" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="131">
@@ -2502,10 +2502,10 @@
         <v>31</v>
       </c>
       <c r="C131" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D131" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="132">
@@ -2516,10 +2516,10 @@
         <v>31</v>
       </c>
       <c r="C132" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D132" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="133">
@@ -2530,10 +2530,10 @@
         <v>31</v>
       </c>
       <c r="C133" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D133" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="134">
@@ -2544,7 +2544,7 @@
         <v>31</v>
       </c>
       <c r="C134" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D134" t="n">
         <v>0.11</v>
@@ -2558,10 +2558,10 @@
         <v>31</v>
       </c>
       <c r="C135" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="136">
@@ -2572,94 +2572,94 @@
         <v>31</v>
       </c>
       <c r="C136" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D136" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C137" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C138" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C139" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D139" t="n">
-        <v>0.07</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C140" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D140" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C141" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C142" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>0.07</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="143">
@@ -2673,7 +2673,7 @@
         <v>2009</v>
       </c>
       <c r="D143" t="n">
-        <v>0.07</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="144">
@@ -2687,7 +2687,7 @@
         <v>2010</v>
       </c>
       <c r="D144" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="145">
@@ -2701,7 +2701,7 @@
         <v>2011</v>
       </c>
       <c r="D145" t="n">
-        <v>0.07</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146">
@@ -2715,7 +2715,7 @@
         <v>2012</v>
       </c>
       <c r="D146" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="147">
@@ -2729,7 +2729,7 @@
         <v>2013</v>
       </c>
       <c r="D147" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="148">
@@ -2743,7 +2743,7 @@
         <v>2014</v>
       </c>
       <c r="D148" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="149">
@@ -2757,7 +2757,7 @@
         <v>2015</v>
       </c>
       <c r="D149" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="150">
@@ -2768,11 +2768,9 @@
         <v>35</v>
       </c>
       <c r="C150" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.18</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -2782,11 +2780,9 @@
         <v>35</v>
       </c>
       <c r="C151" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.18</v>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="D151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -2796,11 +2792,9 @@
         <v>35</v>
       </c>
       <c r="C152" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.25</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="D152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -2810,11 +2804,9 @@
         <v>35</v>
       </c>
       <c r="C153" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.23</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="D153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -2824,11 +2816,9 @@
         <v>35</v>
       </c>
       <c r="C154" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.2</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -2838,11 +2828,9 @@
         <v>35</v>
       </c>
       <c r="C155" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.2</v>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="D155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -2852,93 +2840,95 @@
         <v>35</v>
       </c>
       <c r="C156" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.17</v>
-      </c>
+        <v>2006</v>
+      </c>
+      <c r="D156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C157" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="D157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C159" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C160" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C161" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D161"/>
+        <v>2011</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.025101776</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C162" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D162"/>
+        <v>2012</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.023662193</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C163" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D163"/>
     </row>
@@ -2950,9 +2940,11 @@
         <v>37</v>
       </c>
       <c r="C164" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D164"/>
+        <v>2008</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -2962,9 +2954,11 @@
         <v>37</v>
       </c>
       <c r="C165" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D165"/>
+        <v>2009</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -2974,9 +2968,11 @@
         <v>37</v>
       </c>
       <c r="C166" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D166"/>
+        <v>2010</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -2986,9 +2982,11 @@
         <v>37</v>
       </c>
       <c r="C167" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D167"/>
+        <v>2011</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -2998,10 +2996,10 @@
         <v>37</v>
       </c>
       <c r="C168" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D168" t="n">
-        <v>0.025101776</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="169">
@@ -3012,10 +3010,10 @@
         <v>37</v>
       </c>
       <c r="C169" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D169" t="n">
-        <v>0.023662193</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="170">
@@ -3026,19 +3024,21 @@
         <v>37</v>
       </c>
       <c r="C170" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D170"/>
+        <v>2014</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C171" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D171" t="n">
         <v>0.09</v>
@@ -3052,10 +3052,10 @@
         <v>39</v>
       </c>
       <c r="C172" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="173">
@@ -3066,10 +3066,10 @@
         <v>39</v>
       </c>
       <c r="C173" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D173" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="174">
@@ -3080,10 +3080,10 @@
         <v>39</v>
       </c>
       <c r="C174" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D174" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="175">
@@ -3094,10 +3094,10 @@
         <v>39</v>
       </c>
       <c r="C175" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D175" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="176">
@@ -3108,10 +3108,10 @@
         <v>39</v>
       </c>
       <c r="C176" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D176" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="177">
@@ -3122,108 +3122,106 @@
         <v>39</v>
       </c>
       <c r="C177" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C178" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.09</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C179" t="n">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03</v>
+        <v>0.0203656488</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C180" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03</v>
+        <v>0.0315459487</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C181" t="n">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02</v>
+        <v>0.0504027739</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B182" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C182" t="n">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D182" t="n">
-        <v>0.03</v>
+        <v>0.0565109286</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C183" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D183" t="n">
-        <v>0.05</v>
+        <v>0.0414807152</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B184" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C184" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D184" t="n">
-        <v>0.09</v>
+        <v>0.0331706921</v>
       </c>
     </row>
     <row r="185">
@@ -3234,106 +3232,108 @@
         <v>43</v>
       </c>
       <c r="C185" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D185"/>
+        <v>2006</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.0376402187</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C186" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D186" t="n">
-        <v>0.04</v>
+        <v>0.0398851891</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C187" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D187" t="n">
-        <v>0.04</v>
+        <v>0.0507709082</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C188" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D188" t="n">
-        <v>0.09</v>
+        <v>0.0748927276</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C189" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02</v>
+        <v>0.0650615327</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C190" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>0.05792696</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C191" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D191" t="n">
-        <v>0.01</v>
+        <v>0.0540147394</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C192" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>0.0520883376</v>
       </c>
     </row>
     <row r="193">
@@ -3344,10 +3344,10 @@
         <v>45</v>
       </c>
       <c r="C193" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="194">
@@ -3358,10 +3358,10 @@
         <v>45</v>
       </c>
       <c r="C194" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="195">
@@ -3372,77 +3372,77 @@
         <v>45</v>
       </c>
       <c r="C195" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C196" t="n">
-        <v>1991</v>
+        <v>2008</v>
       </c>
       <c r="D196" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C197" t="n">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="D197" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C198" t="n">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="D198" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C199" t="n">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="D199" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B200" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C200" t="n">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="D200" t="n">
         <v>0.06</v>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B201" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C201" t="n">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="D201" t="n">
         <v>0.05</v>
@@ -3464,30 +3464,30 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B202" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C202" t="n">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="D202" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B203" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C203" t="n">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="D203" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="204">
@@ -3498,10 +3498,10 @@
         <v>47</v>
       </c>
       <c r="C204" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="D204" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="205">
@@ -3512,7 +3512,7 @@
         <v>47</v>
       </c>
       <c r="C205" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="D205" t="n">
         <v>0.04</v>
@@ -3526,10 +3526,10 @@
         <v>47</v>
       </c>
       <c r="C206" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="D206" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="207">
@@ -3540,10 +3540,10 @@
         <v>47</v>
       </c>
       <c r="C207" t="n">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="D207" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="208">
@@ -3554,10 +3554,10 @@
         <v>47</v>
       </c>
       <c r="C208" t="n">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D208" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3568,10 +3568,10 @@
         <v>47</v>
       </c>
       <c r="C209" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="D209" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="210">
@@ -3582,10 +3582,10 @@
         <v>47</v>
       </c>
       <c r="C210" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D210" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -3596,10 +3596,10 @@
         <v>47</v>
       </c>
       <c r="C211" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D211" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="212">
@@ -3610,10 +3610,10 @@
         <v>47</v>
       </c>
       <c r="C212" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D212" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="213">
@@ -3624,108 +3624,108 @@
         <v>47</v>
       </c>
       <c r="C213" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D213" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C214" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="D214" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C215" t="n">
-        <v>2010</v>
+        <v>1992</v>
       </c>
       <c r="D215" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C216" t="n">
-        <v>2011</v>
+        <v>1993</v>
       </c>
       <c r="D216" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B217" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C217" t="n">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="D217" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C218" t="n">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C219" t="n">
-        <v>2014</v>
+        <v>1996</v>
       </c>
       <c r="D219" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C220" t="n">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="221">
@@ -3736,10 +3736,10 @@
         <v>49</v>
       </c>
       <c r="C221" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="D221" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="222">
@@ -3750,10 +3750,10 @@
         <v>49</v>
       </c>
       <c r="C222" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="D222" t="n">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="223">
@@ -3764,10 +3764,10 @@
         <v>49</v>
       </c>
       <c r="C223" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D223" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="224">
@@ -3778,10 +3778,10 @@
         <v>49</v>
       </c>
       <c r="C224" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D224" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="225">
@@ -3792,10 +3792,10 @@
         <v>49</v>
       </c>
       <c r="C225" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D225" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="226">
@@ -3806,10 +3806,10 @@
         <v>49</v>
       </c>
       <c r="C226" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="227">
@@ -3820,10 +3820,10 @@
         <v>49</v>
       </c>
       <c r="C227" t="n">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D227" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="228">
@@ -3834,10 +3834,10 @@
         <v>49</v>
       </c>
       <c r="C228" t="n">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D228" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="229">
@@ -3848,10 +3848,10 @@
         <v>49</v>
       </c>
       <c r="C229" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D229" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="230">
@@ -3862,10 +3862,10 @@
         <v>49</v>
       </c>
       <c r="C230" t="n">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D230" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="231">
@@ -3876,108 +3876,108 @@
         <v>49</v>
       </c>
       <c r="C231" t="n">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D231" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C232" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0203656488</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C233" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0315459487</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C234" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0504027739</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C235" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0565109286</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B236" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C236" t="n">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0414807152</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C237" t="n">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0331706921</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C238" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0376402187</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="239">
@@ -3988,10 +3988,10 @@
         <v>51</v>
       </c>
       <c r="C239" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0398851891</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="240">
@@ -4002,10 +4002,10 @@
         <v>51</v>
       </c>
       <c r="C240" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0507709082</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="241">
@@ -4016,10 +4016,10 @@
         <v>51</v>
       </c>
       <c r="C241" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0748927276</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="242">
@@ -4030,10 +4030,10 @@
         <v>51</v>
       </c>
       <c r="C242" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0650615327</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="243">
@@ -4044,10 +4044,10 @@
         <v>51</v>
       </c>
       <c r="C243" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D243" t="n">
-        <v>0.05792696</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="244">
@@ -4058,10 +4058,10 @@
         <v>51</v>
       </c>
       <c r="C244" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0540147394</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="245">
@@ -4072,10 +4072,10 @@
         <v>51</v>
       </c>
       <c r="C245" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0520883376</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -4097,78 +4097,81 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>67</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>68</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4176,32 +4179,32 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.26</v>
-      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>0.029699847</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.035053729</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.031213899</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.028447566</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.027080418</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.048255661</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -4215,40 +4218,43 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
+      <c r="M3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.09</v>
+      </c>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -4257,39 +4263,56 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.027080418</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.048255661</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="n">
+        <v>0.058029769</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05648851</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.051239015</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.049921275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.052420212</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.055136554</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.069144646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06136627</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.066368968</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.065588828</v>
+      </c>
       <c r="N4" t="n">
-        <v>0.029699847</v>
+        <v>0.069949687</v>
       </c>
       <c r="O4" t="n">
-        <v>0.035053729</v>
+        <v>0.075652369</v>
       </c>
       <c r="P4" t="n">
-        <v>0.031213899</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.028447566</v>
-      </c>
+        <v>0.081611315</v>
+      </c>
+      <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -4299,54 +4322,39 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.066368968</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.065588828</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.069949687</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.075652369</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.081611315</v>
-      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" t="n">
-        <v>0.058029769</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.05648851</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.051239015</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.049921275</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.052420212</v>
-      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.055136554</v>
+        <v>0.04</v>
       </c>
       <c r="P5" t="n">
-        <v>0.069144646</v>
+        <v>0.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06136627</v>
-      </c>
-      <c r="R5"/>
+        <v>0.13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -4355,50 +4363,53 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="n">
         <v>0.09</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
+      <c r="I6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.23</v>
+      </c>
       <c r="N6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.09</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R6"/>
+      <c r="R6" t="n">
+        <v>0.09</v>
+      </c>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -4407,52 +4418,55 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="L7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.12</v>
       </c>
-      <c r="E7" t="n">
+      <c r="O7" t="n">
         <v>0.11</v>
       </c>
-      <c r="F7" t="n">
+      <c r="P7" t="n">
         <v>0.13</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Q7" t="n">
         <v>0.14</v>
       </c>
-      <c r="H7" t="n">
+      <c r="R7" t="n">
         <v>0.15</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -4461,36 +4475,57 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8"/>
       <c r="D8"/>
-      <c r="E8" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="E8"/>
       <c r="F8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.08</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.13</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -4499,53 +4534,42 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.13</v>
-      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
+      <c r="K9" t="n">
+        <v>0.064289413</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.03</v>
+        <v>0.050924275</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07</v>
+        <v>0.049786431</v>
       </c>
       <c r="N9" t="n">
-        <v>0.11</v>
+        <v>0.048467455</v>
       </c>
       <c r="O9" t="n">
-        <v>0.13</v>
+        <v>0.055832166</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.064116771</v>
+      </c>
+      <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
@@ -4555,50 +4579,51 @@
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
+      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07</v>
-      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
         <v>0.07</v>
       </c>
       <c r="H10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.07</v>
       </c>
-      <c r="I10"/>
-      <c r="J10" t="n">
-        <v>0.08</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="M10" t="n">
         <v>0.07</v>
       </c>
       <c r="N10" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="P10" t="n">
         <v>0.07</v>
@@ -4606,7 +4631,9 @@
       <c r="Q10" t="n">
         <v>0.07</v>
       </c>
-      <c r="R10"/>
+      <c r="R10" t="n">
+        <v>0.07</v>
+      </c>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
@@ -4615,26 +4642,19 @@
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.050924275</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.049786431</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.048467455</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.055832166</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.064116771</v>
-      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -4644,11 +4664,15 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11"/>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
       <c r="Q11" t="n">
-        <v>0.064289413</v>
-      </c>
-      <c r="R11"/>
+        <v>0.02</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.03</v>
+      </c>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
@@ -4657,12 +4681,15 @@
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
+      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -4687,34 +4714,57 @@
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
+      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
+        <v>0.07</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.09</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -4723,42 +4773,45 @@
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
+      <c r="AA13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="J14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.75</v>
+      </c>
       <c r="P14" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -4769,54 +4822,57 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
+      <c r="AA14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.11</v>
       </c>
-      <c r="C15" t="n">
+      <c r="K15" t="n">
         <v>0.11</v>
       </c>
-      <c r="D15" t="n">
+      <c r="L15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.13</v>
       </c>
-      <c r="E15" t="n">
+      <c r="O15" t="n">
         <v>0.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.08</v>
       </c>
       <c r="P15" t="n">
         <v>0.11</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R15"/>
+        <v>0.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.14</v>
+      </c>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
@@ -4825,54 +4881,45 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07</v>
+        <v>0.25</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="R16"/>
+        <v>0.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.17</v>
+      </c>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -4881,39 +4928,32 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="N17" t="n">
+        <v>0.025101776</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.023662193</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
@@ -4925,32 +4965,47 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18"/>
-      <c r="D18" t="n">
-        <v>0.025101776</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.023662193</v>
-      </c>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
+      <c r="K18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.09</v>
+      </c>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
@@ -4959,44 +5014,43 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
+      <c r="M19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.03</v>
+      </c>
       <c r="Q19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.09</v>
       </c>
-      <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -5005,30 +5059,21 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20"/>
-      <c r="C20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5047,26 +5092,57 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0203656488</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0315459487</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0504027739</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0565109286</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0414807152</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0331706921</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0376402187</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0398851891</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0507709082</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0748927276</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0650615327</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05792696</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0540147394</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0520883376</v>
+      </c>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -5077,48 +5153,53 @@
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+        <v>0.14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.09</v>
+      </c>
       <c r="O22" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="P22" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R22"/>
+        <v>0.05</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.05</v>
+      </c>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -5127,32 +5208,21 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="I23" t="n">
         <v>0.04</v>
       </c>
@@ -5160,155 +5230,159 @@
         <v>0.04</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M23" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="O23" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.07</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.13</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="N24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W24" t="n">
         <v>0.06</v>
       </c>
-      <c r="F24" t="n">
+      <c r="X24" t="n">
         <v>0.05</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
+      <c r="Y24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.0748927276</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0650615327</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.05792696</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0540147394</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0520883376</v>
-      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" t="n">
-        <v>0.0203656488</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0315459487</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0504027739</v>
-      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25" t="n">
-        <v>0.0565109286</v>
+        <v>0.37</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0414807152</v>
+        <v>0.14</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0331706921</v>
+        <v>0.21</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0376402187</v>
+        <v>0.2</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0398851891</v>
+        <v>1.34</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0507709082</v>
-      </c>
-      <c r="R25"/>
+        <v>1.26</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.18</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -5317,6 +5391,7 @@
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
+      <c r="AA25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -28,10 +28,10 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
+    <t xml:space="preserve">AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
     <t xml:space="preserve">BG</t>
@@ -40,12 +40,6 @@
     <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
-    <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
     <t xml:space="preserve">HR</t>
   </si>
   <si>
@@ -64,18 +58,6 @@
     <t xml:space="preserve">Estonia</t>
   </si>
   <si>
-    <t xml:space="preserve">HU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IL</t>
   </si>
   <si>
@@ -118,12 +100,6 @@
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
     <t xml:space="preserve">RO</t>
   </si>
   <si>
@@ -136,18 +112,6 @@
     <t xml:space="preserve">Russian Federation</t>
   </si>
   <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
     <t xml:space="preserve">TW</t>
   </si>
   <si>
@@ -172,91 +136,103 @@
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000</t>
   </si>
   <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name: ssc-percent-gni</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: South-south development cooperation provided, % of GNI.</t>
+    <t xml:space="preserve">Description: Net ODA provided by countries beyond the OECD Development Assistance Committee (DAC) who do report to the OECD, expressed as a percentage of gross national income</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initiatives based on OECD DAC and national sources.</t>
+    <t xml:space="preserve">Source: 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -265,25 +241,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -617,83 +587,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -732,9 +701,11 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2"/>
+        <v>2014</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -744,9 +715,11 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D3"/>
+        <v>2015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0186</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -756,486 +729,500 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D4"/>
+        <v>2016</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D5"/>
+        <v>2010</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0871</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D6"/>
+        <v>2011</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0929</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.029699847</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v>0.035053729</v>
+        <v>0.0971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>0.031213899</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.028447566</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.027080418</v>
+        <v>0.1344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="n">
-        <v>0.048255661</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D13"/>
+        <v>2012</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0395</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D14"/>
+        <v>2013</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0805</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D15"/>
+        <v>2014</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1262</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.0923</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09</v>
+        <v>0.1453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D22"/>
+        <v>2008</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D23" t="n">
-        <v>0.058029769</v>
+        <v>0.1963</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05648851</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.051239015</v>
+        <v>0.1577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.049921275</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="D27" t="n">
-        <v>0.052420212</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>0.055136554</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="D29" t="n">
-        <v>0.069144646</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06136627</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D31" t="n">
-        <v>0.066368968</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D32" t="n">
-        <v>0.065588828</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D33" t="n">
-        <v>0.069949687</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D34" t="n">
-        <v>0.075652369</v>
+        <v>0.1016</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D35" t="n">
-        <v>0.081611315</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="40">
@@ -1246,10 +1233,10 @@
         <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="41">
@@ -1260,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="D41" t="n">
-        <v>0.14</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="42">
@@ -1274,10 +1261,10 @@
         <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.17</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="43">
@@ -1288,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="D43" t="n">
         <v>0.17</v>
@@ -1296,100 +1283,100 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.0812</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23</v>
+        <v>0.1243</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="D46" t="n">
-        <v>0.16</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="D47" t="n">
-        <v>0.11</v>
+        <v>0.0705</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1</v>
+        <v>0.0749</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09</v>
+        <v>0.0685</v>
       </c>
     </row>
     <row r="51">
@@ -1400,10 +1387,10 @@
         <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="52">
@@ -1414,10 +1401,10 @@
         <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="53">
@@ -1428,10 +1415,10 @@
         <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="54">
@@ -1442,10 +1429,10 @@
         <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="55">
@@ -1456,10 +1443,10 @@
         <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1</v>
+        <v>0.0726</v>
       </c>
     </row>
     <row r="56">
@@ -1470,10 +1457,10 @@
         <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="57">
@@ -1484,10 +1471,10 @@
         <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="58">
@@ -1498,10 +1485,10 @@
         <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>0.12</v>
+        <v>0.0788</v>
       </c>
     </row>
     <row r="59">
@@ -1512,10 +1499,10 @@
         <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>0.11</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="60">
@@ -1526,38 +1513,38 @@
         <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D61" t="n">
-        <v>0.14</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>0.15</v>
+        <v>0.0176</v>
       </c>
     </row>
     <row r="63">
@@ -1568,10 +1555,10 @@
         <v>17</v>
       </c>
       <c r="C63" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="64">
@@ -1582,609 +1569,627 @@
         <v>17</v>
       </c>
       <c r="C64" t="n">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.11</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C66" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D66" t="n">
-        <v>0.13</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C67" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1</v>
+        <v>0.0604</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C70" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C71" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D71" t="n">
-        <v>0.11</v>
+        <v>0.0659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1</v>
+        <v>0.0637</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C74" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D74" t="n">
-        <v>0.11</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C75" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D75" t="n">
-        <v>0.13</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D76"/>
+        <v>2013</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0764</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D77"/>
+        <v>2014</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0803</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C78" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D78"/>
+        <v>2015</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0857</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D79"/>
+        <v>2016</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1087</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D80"/>
+        <v>2017</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D81"/>
+        <v>2007</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4359</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D82"/>
+        <v>2008</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.5249</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D83"/>
+        <v>2009</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6756</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D84" t="n">
-        <v>0.064289413</v>
+        <v>0.6212</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D85" t="n">
-        <v>0.050924275</v>
+        <v>0.6934</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D86" t="n">
-        <v>0.049786431</v>
+        <v>0.7509</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D87" t="n">
-        <v>0.048467455</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>0.055832166</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C89" t="n">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D89" t="n">
-        <v>0.064116771</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C91" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D91" t="n">
-        <v>0.12</v>
+        <v>0.0616</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C92" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="D93" t="n">
-        <v>0.07</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C95" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C96" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C97" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07</v>
+        <v>0.1272</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C100" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09</v>
+        <v>0.0976</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07</v>
+        <v>0.1214</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C102" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C103" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C105" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C106" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C107" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D107" t="n">
-        <v>0.03</v>
+        <v>0.2343</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C108" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D108"/>
+        <v>2013</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.2041</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -2194,10 +2199,10 @@
         <v>27</v>
       </c>
       <c r="C109" t="n">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01</v>
+        <v>0.2016</v>
       </c>
     </row>
     <row r="110">
@@ -2208,10 +2213,10 @@
         <v>27</v>
       </c>
       <c r="C110" t="n">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="111">
@@ -2222,10 +2227,10 @@
         <v>27</v>
       </c>
       <c r="C111" t="n">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07</v>
+        <v>0.1992</v>
       </c>
     </row>
     <row r="112">
@@ -2236,528 +2241,528 @@
         <v>27</v>
       </c>
       <c r="C112" t="n">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C113" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C114" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07</v>
+        <v>0.0763</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C115" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07</v>
+        <v>0.0714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C116" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06</v>
+        <v>0.0875</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C117" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D117" t="n">
-        <v>0.07</v>
+        <v>0.0855</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C118" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C119" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>0.08</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C121" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C122" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D122" t="n">
-        <v>0.44</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C123" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D123" t="n">
-        <v>0.53</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C124" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D124" t="n">
-        <v>0.68</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C125" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D125" t="n">
-        <v>0.62</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C126" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D126" t="n">
-        <v>0.69</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C127" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D127" t="n">
-        <v>0.75</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C128" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D128" t="n">
-        <v>0.64</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C129" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C130" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C131" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C132" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C133" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D133" t="n">
-        <v>0.08</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C134" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D134" t="n">
-        <v>0.11</v>
+        <v>0.1305</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C135" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D135" t="n">
-        <v>0.11</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C136" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D136" t="n">
-        <v>0.11</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C137" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D137" t="n">
-        <v>0.11</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C138" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D138" t="n">
-        <v>0.13</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C139" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D139" t="n">
-        <v>0.13</v>
+        <v>0.0501</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C140" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>0.11</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C141" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C142" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D142" t="n">
-        <v>0.14</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C143" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D143" t="n">
-        <v>0.18</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C144" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D144" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C145" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D145" t="n">
-        <v>0.25</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C146" t="n">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D146" t="n">
-        <v>0.23</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C147" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C148" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C149" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D149" t="n">
-        <v>0.17</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="150">
@@ -2768,9 +2773,11 @@
         <v>35</v>
       </c>
       <c r="C150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D150"/>
+        <v>2014</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0184</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -2780,9 +2787,11 @@
         <v>35</v>
       </c>
       <c r="C151" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D151"/>
+        <v>2015</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.017</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -2792,145 +2801,165 @@
         <v>35</v>
       </c>
       <c r="C152" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D152"/>
+        <v>2016</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0456</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C153" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D153"/>
+        <v>1991</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0778</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C154" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D154"/>
+        <v>1992</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0543</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C155" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D155"/>
+        <v>1993</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0355</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C156" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D156"/>
+        <v>1994</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.044</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C157" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D157"/>
+        <v>1995</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0623</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C158" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D158"/>
+        <v>1996</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0477</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C159" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D159"/>
+        <v>1997</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0399</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C160" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D160"/>
+        <v>1998</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0333</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C161" t="n">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="D161" t="n">
-        <v>0.025101776</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C162" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D162" t="n">
-        <v>0.023662193</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C163" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D163"/>
+        <v>2001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0433</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -2940,10 +2969,10 @@
         <v>37</v>
       </c>
       <c r="C164" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D164" t="n">
-        <v>0.09</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="165">
@@ -2954,10 +2983,10 @@
         <v>37</v>
       </c>
       <c r="C165" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="166">
@@ -2968,10 +2997,10 @@
         <v>37</v>
       </c>
       <c r="C166" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D166" t="n">
-        <v>0.07</v>
+        <v>0.1127</v>
       </c>
     </row>
     <row r="167">
@@ -2982,10 +3011,10 @@
         <v>37</v>
       </c>
       <c r="C167" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D167" t="n">
-        <v>0.09</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="168">
@@ -2996,10 +3025,10 @@
         <v>37</v>
       </c>
       <c r="C168" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09</v>
+        <v>0.1787</v>
       </c>
     </row>
     <row r="169">
@@ -3010,10 +3039,10 @@
         <v>37</v>
       </c>
       <c r="C169" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D169" t="n">
-        <v>0.07</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="170">
@@ -3024,10 +3053,10 @@
         <v>37</v>
       </c>
       <c r="C170" t="n">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D170" t="n">
-        <v>0.11</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="171">
@@ -3038,1044 +3067,248 @@
         <v>37</v>
       </c>
       <c r="C171" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D171" t="n">
-        <v>0.09</v>
+        <v>0.1145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C172" t="n">
         <v>2010</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03</v>
+        <v>0.1312</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C173" t="n">
         <v>2011</v>
       </c>
       <c r="D173" t="n">
-        <v>0.03</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C174" t="n">
         <v>2012</v>
       </c>
       <c r="D174" t="n">
-        <v>0.02</v>
+        <v>0.3222</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C175" t="n">
         <v>2013</v>
       </c>
       <c r="D175" t="n">
-        <v>0.03</v>
+        <v>0.4034</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C176" t="n">
         <v>2014</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05</v>
+        <v>0.4488</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C177" t="n">
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>0.09</v>
+        <v>0.5005</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B178" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C178" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D178"/>
+        <v>2016</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.7555</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C179" t="n">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0203656488</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C180" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0315459487</v>
+        <v>0.3696</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C181" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0504027739</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B182" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C182" t="n">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0565109286</v>
+        <v>0.2066</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C183" t="n">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0414807152</v>
+        <v>0.2038</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C184" t="n">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0331706921</v>
+        <v>1.3417</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C185" t="n">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0376402187</v>
+        <v>1.2599</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C186" t="n">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0398851891</v>
+        <v>1.1823</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B187" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C187" t="n">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0507709082</v>
+        <v>1.2084</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C188" t="n">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0748927276</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>42</v>
-      </c>
-      <c r="B189" t="s">
-        <v>43</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.0650615327</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>42</v>
-      </c>
-      <c r="B190" t="s">
-        <v>43</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.05792696</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>42</v>
-      </c>
-      <c r="B191" t="s">
-        <v>43</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.0540147394</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>42</v>
-      </c>
-      <c r="B192" t="s">
-        <v>43</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.0520883376</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>44</v>
-      </c>
-      <c r="B193" t="s">
-        <v>45</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>44</v>
-      </c>
-      <c r="B194" t="s">
-        <v>45</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>44</v>
-      </c>
-      <c r="B195" t="s">
-        <v>45</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>44</v>
-      </c>
-      <c r="B196" t="s">
-        <v>45</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>44</v>
-      </c>
-      <c r="B197" t="s">
-        <v>45</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>44</v>
-      </c>
-      <c r="B198" t="s">
-        <v>45</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>44</v>
-      </c>
-      <c r="B199" t="s">
-        <v>45</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>44</v>
-      </c>
-      <c r="B200" t="s">
-        <v>45</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>44</v>
-      </c>
-      <c r="B201" t="s">
-        <v>45</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>44</v>
-      </c>
-      <c r="B202" t="s">
-        <v>45</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>44</v>
-      </c>
-      <c r="B203" t="s">
-        <v>45</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>46</v>
-      </c>
-      <c r="B204" t="s">
-        <v>47</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>46</v>
-      </c>
-      <c r="B205" t="s">
-        <v>47</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>46</v>
-      </c>
-      <c r="B206" t="s">
-        <v>47</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>46</v>
-      </c>
-      <c r="B207" t="s">
-        <v>47</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>46</v>
-      </c>
-      <c r="B208" t="s">
-        <v>47</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" t="s">
-        <v>47</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>46</v>
-      </c>
-      <c r="B210" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>46</v>
-      </c>
-      <c r="B211" t="s">
-        <v>47</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>46</v>
-      </c>
-      <c r="B212" t="s">
-        <v>47</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>46</v>
-      </c>
-      <c r="B213" t="s">
-        <v>47</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>48</v>
-      </c>
-      <c r="B214" t="s">
-        <v>49</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1991</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>48</v>
-      </c>
-      <c r="B215" t="s">
-        <v>49</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>48</v>
-      </c>
-      <c r="B216" t="s">
-        <v>49</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1993</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>48</v>
-      </c>
-      <c r="B217" t="s">
-        <v>49</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1994</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>48</v>
-      </c>
-      <c r="B218" t="s">
-        <v>49</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1995</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>48</v>
-      </c>
-      <c r="B219" t="s">
-        <v>49</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1996</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>48</v>
-      </c>
-      <c r="B220" t="s">
-        <v>49</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1997</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>48</v>
-      </c>
-      <c r="B221" t="s">
-        <v>49</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>48</v>
-      </c>
-      <c r="B222" t="s">
-        <v>49</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1999</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>48</v>
-      </c>
-      <c r="B223" t="s">
-        <v>49</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>48</v>
-      </c>
-      <c r="B224" t="s">
-        <v>49</v>
-      </c>
-      <c r="C224" t="n">
-        <v>2001</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>48</v>
-      </c>
-      <c r="B225" t="s">
-        <v>49</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>48</v>
-      </c>
-      <c r="B226" t="s">
-        <v>49</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>48</v>
-      </c>
-      <c r="B227" t="s">
-        <v>49</v>
-      </c>
-      <c r="C227" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>48</v>
-      </c>
-      <c r="B228" t="s">
-        <v>49</v>
-      </c>
-      <c r="C228" t="n">
-        <v>2005</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>48</v>
-      </c>
-      <c r="B229" t="s">
-        <v>49</v>
-      </c>
-      <c r="C229" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>48</v>
-      </c>
-      <c r="B230" t="s">
-        <v>49</v>
-      </c>
-      <c r="C230" t="n">
-        <v>2007</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>48</v>
-      </c>
-      <c r="B231" t="s">
-        <v>49</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>48</v>
-      </c>
-      <c r="B232" t="s">
-        <v>49</v>
-      </c>
-      <c r="C232" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>48</v>
-      </c>
-      <c r="B233" t="s">
-        <v>49</v>
-      </c>
-      <c r="C233" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>48</v>
-      </c>
-      <c r="B234" t="s">
-        <v>49</v>
-      </c>
-      <c r="C234" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>48</v>
-      </c>
-      <c r="B235" t="s">
-        <v>49</v>
-      </c>
-      <c r="C235" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>48</v>
-      </c>
-      <c r="B236" t="s">
-        <v>49</v>
-      </c>
-      <c r="C236" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>48</v>
-      </c>
-      <c r="B237" t="s">
-        <v>49</v>
-      </c>
-      <c r="C237" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>48</v>
-      </c>
-      <c r="B238" t="s">
-        <v>49</v>
-      </c>
-      <c r="C238" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>50</v>
-      </c>
-      <c r="B239" t="s">
-        <v>51</v>
-      </c>
-      <c r="C239" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>50</v>
-      </c>
-      <c r="B240" t="s">
-        <v>51</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>50</v>
-      </c>
-      <c r="B241" t="s">
-        <v>51</v>
-      </c>
-      <c r="C241" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>50</v>
-      </c>
-      <c r="B242" t="s">
-        <v>51</v>
-      </c>
-      <c r="C242" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>50</v>
-      </c>
-      <c r="B243" t="s">
-        <v>51</v>
-      </c>
-      <c r="C243" t="n">
-        <v>2013</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>50</v>
-      </c>
-      <c r="B244" t="s">
-        <v>51</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>50</v>
-      </c>
-      <c r="B245" t="s">
-        <v>51</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D245" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -4100,79 +3333,85 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="X1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Y1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Z1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AA1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AB1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AC1" t="s">
         <v>66</v>
-      </c>
-      <c r="R1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -4182,29 +3421,23 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" t="n">
-        <v>0.029699847</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.035053729</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.031213899</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.028447566</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.027080418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.048255661</v>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -4219,6 +3452,8 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -4227,34 +3462,38 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="C3" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0859</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0871</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0803</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0971</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.11</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -4264,6 +3503,8 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -4272,46 +3513,32 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="n">
+        <v>0.1262</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.058029769</v>
+        <v>0.0934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05648851</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.051239015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.049921275</v>
-      </c>
+        <v>0.0745</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.052420212</v>
+        <v>0.0395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.055136554</v>
+        <v>0.0805</v>
       </c>
       <c r="J4" t="n">
-        <v>0.069144646</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06136627</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.066368968</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.065588828</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.069949687</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.075652369</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.081611315</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -4323,6 +3550,8 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -4331,30 +3560,44 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5" t="n">
+        <v>0.0936</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0897</v>
+      </c>
       <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="F5" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1577</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1135</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0982</v>
+      </c>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="K5" t="n">
+        <v>0.0923</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1453</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1698</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.165</v>
+      </c>
       <c r="O5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.1963</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -4364,6 +3607,8 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4372,44 +3617,50 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
+      <c r="C6" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1898</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1023</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1149</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.09</v>
+        <v>0.1064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.14</v>
+        <v>0.1265</v>
       </c>
       <c r="J6" t="n">
         <v>0.17</v>
       </c>
       <c r="K6" t="n">
-        <v>0.17</v>
+        <v>0.0765</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2</v>
+        <v>0.0885</v>
       </c>
       <c r="M6" t="n">
-        <v>0.23</v>
+        <v>0.0804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.16</v>
+        <v>0.1016</v>
       </c>
       <c r="O6" t="n">
-        <v>0.11</v>
+        <v>0.0994</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.0461</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -4419,6 +3670,8 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4427,47 +3680,57 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="C7" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0688</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.0871</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.0726</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09</v>
+        <v>0.0706</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1</v>
+        <v>0.0749</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1</v>
+        <v>0.0635</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1</v>
+        <v>0.0685</v>
       </c>
       <c r="N7" t="n">
-        <v>0.12</v>
+        <v>0.0693</v>
       </c>
       <c r="O7" t="n">
-        <v>0.11</v>
+        <v>0.0649</v>
       </c>
       <c r="P7" t="n">
-        <v>0.13</v>
+        <v>0.0705</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.14</v>
+        <v>0.0812</v>
       </c>
       <c r="R7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S7"/>
+        <v>0.1243</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1003</v>
+      </c>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
@@ -4476,6 +3739,8 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4484,48 +3749,30 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" t="n">
+      <c r="C8" t="n">
+        <v>0.0176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.03</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.11</v>
-      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.13</v>
-      </c>
+        <v>0.0041</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -4535,6 +3782,8 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -4545,30 +3794,20 @@
       </c>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9"/>
+      <c r="E9" t="n">
+        <v>0.87</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="n">
-        <v>0.064289413</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.050924275</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.049786431</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.048467455</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.055832166</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.064116771</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
@@ -4580,6 +3819,8 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -4588,53 +3829,53 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="n">
+        <v>0.0803</v>
+      </c>
       <c r="D10" t="n">
-        <v>0.08</v>
+        <v>0.0857</v>
       </c>
       <c r="E10" t="n">
-        <v>0.12</v>
+        <v>0.1087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.0637</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07</v>
+        <v>0.0677</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>0.0747</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06</v>
+        <v>0.0764</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07</v>
+        <v>0.0665</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07</v>
+        <v>0.0604</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07</v>
+        <v>0.0599</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09</v>
+        <v>0.0659</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07</v>
+        <v>0.0745</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="S10"/>
+        <v>0.0621</v>
+      </c>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10" t="n">
+        <v>0.008</v>
+      </c>
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
@@ -4643,6 +3884,8 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -4651,28 +3894,38 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="n">
+        <v>0.5042</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="F11" t="n">
+        <v>0.6212</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6934</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7509</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.643</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="M11" t="n">
+        <v>0.4359</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5249</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
@@ -4682,6 +3935,8 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -4690,23 +3945,53 @@
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
+      <c r="C12" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1214</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1047</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1251</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1272</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1138</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0616</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1109</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0418</v>
+      </c>
       <c r="Q12"/>
       <c r="R12"/>
-      <c r="S12"/>
+      <c r="S12" t="n">
+        <v>0.0108</v>
+      </c>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
@@ -4715,6 +4000,8 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -4723,48 +4010,40 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="C13" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1743</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1992</v>
+      </c>
       <c r="F13" t="n">
-        <v>0.01</v>
+        <v>0.1796</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06</v>
+        <v>0.2475</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07</v>
+        <v>0.2343</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06</v>
+        <v>0.2041</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.07</v>
-      </c>
+        <v>0.22</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.1821</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -4774,6 +4053,8 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -4782,37 +4063,39 @@
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.62</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0875</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0855</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14" t="n">
-        <v>0.69</v>
+        <v>0.0897</v>
       </c>
       <c r="O14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.0763</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
@@ -4823,6 +4106,8 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -4831,48 +4116,38 @@
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="C15" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1007</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.01</v>
+        <v>0.033</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04</v>
+        <v>0.0292</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.0238</v>
       </c>
       <c r="I15" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.08</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
@@ -4882,6 +4157,8 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -4890,36 +4167,46 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="C16" t="n">
+        <v>0.0501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0472</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0598</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1006</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0934</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.054</v>
+      </c>
       <c r="J16"/>
-      <c r="K16"/>
+      <c r="K16" t="n">
+        <v>0.1387</v>
+      </c>
       <c r="L16" t="n">
-        <v>0.18</v>
+        <v>0.1442</v>
       </c>
       <c r="M16" t="n">
-        <v>0.18</v>
+        <v>0.1341</v>
       </c>
       <c r="N16" t="n">
-        <v>0.25</v>
+        <v>0.111</v>
       </c>
       <c r="O16" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.17</v>
-      </c>
+        <v>0.1305</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -4929,6 +4216,8 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -4937,22 +4226,40 @@
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="C17" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0456</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0097</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
+      <c r="L17" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0356</v>
+      </c>
       <c r="N17" t="n">
-        <v>0.025101776</v>
+        <v>0.09</v>
       </c>
       <c r="O17" t="n">
-        <v>0.023662193</v>
+        <v>0.0187</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -4966,6 +4273,8 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -4974,47 +4283,87 @@
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="C18" t="n">
+        <v>0.4488</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5005</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7555</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1312</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1648</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3222</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.95</v>
+      </c>
       <c r="K18" t="n">
-        <v>0.09</v>
+        <v>0.1663</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08</v>
+        <v>0.1787</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07</v>
+        <v>0.0914</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09</v>
+        <v>0.1052</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09</v>
+        <v>0.1145</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07</v>
+        <v>0.1127</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.11</v>
+        <v>0.0433</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
+        <v>0.0406</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0778</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.0623</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0399</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.0407</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -5023,34 +4372,40 @@
       <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="C19" t="n">
+        <v>1.2599</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.1823</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.2084</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1447</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2066</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2038</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.3417</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.31</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="O19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.3696</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -5060,338 +4415,8 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0203656488</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0315459487</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0504027739</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0565109286</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.0414807152</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0331706921</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0376402187</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.0398851891</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0507709082</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0748927276</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0650615327</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.05792696</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.0540147394</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0520883376</v>
-      </c>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 67</t>
+    <t xml:space="preserve">Source: 68</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>

--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 68</t>
+    <t xml:space="preserve">Source: 70</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>

--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 67</t>
+    <t xml:space="preserve">Source: 70</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>

--- a/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
+++ b/user-data/ssc-percent-gni/ssc-percent-gni.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 70</t>
+    <t xml:space="preserve">Source: 69</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 9</t>
